--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_23-37.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_23-37.xlsx
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>CYMBATEX 30 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 1 AMP.</t>
   </si>
   <si>
     <t>DANTRELAX 25MG 30 CAPS.</t>
@@ -2294,17 +2297,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>49</v>
+        <v>-27.5</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2320,17 +2323,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2338,7 +2341,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2346,13 +2349,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2372,13 +2375,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2398,17 +2401,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2416,7 +2419,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2424,17 +2427,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2450,13 +2453,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2476,17 +2479,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2502,17 +2505,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2528,13 +2531,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2554,13 +2557,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2586,11 +2589,11 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2606,17 +2609,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2632,17 +2635,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2658,13 +2661,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2684,17 +2687,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2702,7 +2705,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2710,13 +2713,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2736,17 +2739,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2754,7 +2757,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2762,17 +2765,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2788,17 +2791,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2814,13 +2817,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2832,7 +2835,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2840,17 +2843,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2858,7 +2861,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2866,13 +2869,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2892,17 +2895,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2910,7 +2913,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2918,17 +2921,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2944,13 +2947,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2970,13 +2973,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -3006,7 +3009,7 @@
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -3022,17 +3025,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -3048,13 +3051,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -3074,13 +3077,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -3100,13 +3103,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -3126,17 +3129,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3152,17 +3155,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>720</v>
+        <v>39</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3184,11 +3187,11 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>41</v>
+        <v>720</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3204,13 +3207,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3230,17 +3233,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3248,7 +3251,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3256,17 +3259,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3274,7 +3277,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3282,17 +3285,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3308,13 +3311,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3334,13 +3337,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3366,7 +3369,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3386,13 +3389,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3412,13 +3415,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>136.5</v>
+        <v>110</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3438,17 +3441,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>39</v>
+        <v>136.5</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3464,17 +3467,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3490,13 +3493,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3516,13 +3519,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3542,13 +3545,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3568,13 +3571,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3600,7 +3603,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3620,13 +3623,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3646,17 +3649,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>44.619999999999997</v>
+        <v>102</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3672,17 +3675,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>75</v>
+        <v>44.619999999999997</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3698,13 +3701,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3724,13 +3727,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3750,17 +3753,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3768,7 +3771,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3776,17 +3779,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3802,13 +3805,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>43.649999999999999</v>
+        <v>125</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3828,13 +3831,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>18</v>
+        <v>43.649999999999999</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3854,17 +3857,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3872,7 +3875,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3880,17 +3883,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>65</v>
+        <v>14.1</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3906,13 +3909,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3938,7 +3941,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>33.600000000000001</v>
+        <v>60</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3958,17 +3961,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>33</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3976,7 +3979,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3984,17 +3987,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -4010,17 +4013,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4036,17 +4039,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -4054,7 +4057,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -4062,17 +4065,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4088,13 +4091,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -4106,7 +4109,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4114,17 +4117,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4140,17 +4143,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>149.5</v>
+        <v>102</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4166,17 +4169,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>62</v>
+        <v>149.5</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4192,17 +4195,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4218,17 +4221,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4244,13 +4247,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4276,7 +4279,7 @@
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4296,13 +4299,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4322,17 +4325,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4348,17 +4351,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4380,7 +4383,7 @@
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4400,17 +4403,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4426,17 +4429,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4452,17 +4455,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4478,13 +4481,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>97.019999999999996</v>
+        <v>80</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4504,17 +4507,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>95</v>
+        <v>97.019999999999996</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4536,11 +4539,11 @@
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4556,17 +4559,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4582,17 +4585,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4608,17 +4611,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4634,17 +4637,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4660,17 +4663,17 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -4678,7 +4681,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4686,17 +4689,17 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
@@ -4712,17 +4715,17 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>44.780000000000001</v>
+        <v>70</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
-        <v>172</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4730,7 +4733,7 @@
         <v>136</v>
       </c>
       <c t="s" r="B139" s="7">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4738,17 +4741,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>63</v>
+        <v>44.780000000000001</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4764,13 +4767,13 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
@@ -4790,13 +4793,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="M141" s="9"/>
       <c t="s" r="N141" s="7">
@@ -4816,13 +4819,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>23.5</v>
+        <v>120</v>
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
@@ -4834,7 +4837,7 @@
         <v>140</v>
       </c>
       <c t="s" r="B143" s="7">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -4842,13 +4845,13 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="M143" s="9"/>
       <c t="s" r="N143" s="7">
@@ -4868,13 +4871,13 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M144" s="9"/>
       <c t="s" r="N144" s="7">
@@ -4894,13 +4897,13 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="M145" s="9"/>
       <c t="s" r="N145" s="7">
@@ -4920,17 +4923,17 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c t="s" r="H146" s="8">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="9">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="M146" s="9"/>
       <c t="s" r="N146" s="7">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -4938,7 +4941,7 @@
         <v>144</v>
       </c>
       <c t="s" r="B147" s="7">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -4946,17 +4949,17 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="9">
-        <v>29.98</v>
+        <v>68</v>
       </c>
       <c r="M147" s="9"/>
       <c t="s" r="N147" s="7">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" ht="25.5" customHeight="1">
@@ -4964,7 +4967,7 @@
         <v>145</v>
       </c>
       <c t="s" r="B148" s="7">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -4972,17 +4975,17 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c t="s" r="H148" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="9">
-        <v>26</v>
+        <v>29.98</v>
       </c>
       <c r="M148" s="9"/>
       <c t="s" r="N148" s="7">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" ht="24.75" customHeight="1">
@@ -4990,7 +4993,7 @@
         <v>146</v>
       </c>
       <c t="s" r="B149" s="7">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -4998,17 +5001,17 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c t="s" r="H149" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M149" s="9"/>
       <c t="s" r="N149" s="7">
-        <v>12</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" ht="25.5" customHeight="1">
@@ -5016,7 +5019,7 @@
         <v>147</v>
       </c>
       <c t="s" r="B150" s="7">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -5024,17 +5027,17 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c t="s" r="H150" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M150" s="9"/>
       <c t="s" r="N150" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" ht="24.75" customHeight="1">
@@ -5042,7 +5045,7 @@
         <v>148</v>
       </c>
       <c t="s" r="B151" s="7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -5050,17 +5053,17 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c t="s" r="H151" s="8">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M151" s="9"/>
       <c t="s" r="N151" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" ht="25.5" customHeight="1">
@@ -5076,13 +5079,13 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c t="s" r="H152" s="8">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M152" s="9"/>
       <c t="s" r="N152" s="7">
@@ -5102,13 +5105,13 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c t="s" r="H153" s="8">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M153" s="9"/>
       <c t="s" r="N153" s="7">
@@ -5128,13 +5131,13 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c t="s" r="H154" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M154" s="9"/>
       <c t="s" r="N154" s="7">
@@ -5154,13 +5157,13 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c t="s" r="H155" s="8">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M155" s="9"/>
       <c t="s" r="N155" s="7">
@@ -5172,7 +5175,7 @@
         <v>153</v>
       </c>
       <c t="s" r="B156" s="7">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -5180,17 +5183,17 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c t="s" r="H156" s="8">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="9">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="M156" s="9"/>
       <c t="s" r="N156" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" ht="25.5" customHeight="1">
@@ -5206,17 +5209,17 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c t="s" r="H157" s="8">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M157" s="9"/>
       <c t="s" r="N157" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" ht="25.5" customHeight="1">
@@ -5232,7 +5235,7 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c t="s" r="H158" s="8">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
@@ -5250,7 +5253,7 @@
         <v>156</v>
       </c>
       <c t="s" r="B159" s="7">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -5258,13 +5261,13 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c t="s" r="H159" s="8">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M159" s="9"/>
       <c t="s" r="N159" s="7">
@@ -5284,17 +5287,17 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c t="s" r="H160" s="8">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M160" s="9"/>
       <c t="s" r="N160" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" ht="24.75" customHeight="1">
@@ -5302,7 +5305,7 @@
         <v>158</v>
       </c>
       <c t="s" r="B161" s="7">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -5310,17 +5313,17 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c t="s" r="H161" s="8">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M161" s="9"/>
       <c t="s" r="N161" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" ht="25.5" customHeight="1">
@@ -5336,13 +5339,13 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c t="s" r="H162" s="8">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M162" s="9"/>
       <c t="s" r="N162" s="7">
@@ -5362,51 +5365,77 @@
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c t="s" r="H163" s="8">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M163" s="9"/>
       <c t="s" r="N163" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="164" ht="25.5" customHeight="1">
-      <c r="K164" s="10">
-        <v>13892.84</v>
-      </c>
-      <c r="L164" s="10"/>
-      <c r="M164" s="10"/>
-      <c r="N164" s="10"/>
-    </row>
-    <row r="165" ht="16.5" customHeight="1">
-      <c t="s" r="A165" s="11">
+    <row r="164" ht="24.75" customHeight="1">
+      <c r="A164" s="6">
+        <v>161</v>
+      </c>
+      <c t="s" r="B164" s="7">
         <v>209</v>
       </c>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c t="s" r="F165" s="12">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c t="s" r="H164" s="8">
+        <v>12</v>
+      </c>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="9">
+        <v>300</v>
+      </c>
+      <c r="M164" s="9"/>
+      <c t="s" r="N164" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" ht="26.25" customHeight="1">
+      <c r="K165" s="10">
+        <v>13865.34</v>
+      </c>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+    </row>
+    <row r="166" ht="16.5" customHeight="1">
+      <c t="s" r="A166" s="11">
         <v>210</v>
       </c>
-      <c r="G165" s="12"/>
-      <c r="H165" s="13"/>
-      <c t="s" r="I165" s="14">
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c t="s" r="F166" s="12">
         <v>211</v>
       </c>
-      <c r="J165" s="14"/>
-      <c r="K165" s="14"/>
-      <c r="L165" s="14"/>
-      <c r="M165" s="14"/>
-      <c r="N165" s="14"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="13"/>
+      <c t="s" r="I166" s="14">
+        <v>212</v>
+      </c>
+      <c r="J166" s="14"/>
+      <c r="K166" s="14"/>
+      <c r="L166" s="14"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="491">
+  <mergeCells count="494">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5894,10 +5923,13 @@
     <mergeCell ref="B163:G163"/>
     <mergeCell ref="H163:K163"/>
     <mergeCell ref="L163:M163"/>
-    <mergeCell ref="K164:N164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="I165:N165"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="K165:N165"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="I166:N166"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
